--- a/config_1.12/act_ty_phb_config.xlsx
+++ b/config_1.12/act_ty_phb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,12 +76,11 @@
     <t>16,20,</t>
   </si>
   <si>
-    <t>by_sd_icon_lh_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hqjnh_046_lhsjb_rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
   </si>
 </sst>
 </file>
@@ -212,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +458,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>1610409600</v>
